--- a/dbms.xlsx
+++ b/dbms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pviki\programing\pythonProject\databaseproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pviki\programing\pythonProject\Database-Management-System-in-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D285FBA8-817B-4322-82AE-FEADD83ECB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213E6C28-D065-42A9-B205-DF5D70FC35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,25 +420,25 @@
     <t>SRI SURIYA S</t>
   </si>
   <si>
-    <t>S.NO</t>
-  </si>
-  <si>
     <t>Rollno</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Tutorial-1</t>
-  </si>
-  <si>
-    <t>Tutorial-2</t>
-  </si>
-  <si>
-    <t>Tutorial-3</t>
-  </si>
-  <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>Tutorial1</t>
+  </si>
+  <si>
+    <t>Tutorial2</t>
+  </si>
+  <si>
+    <t>Tutorial3</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,22 +862,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4">
         <v>19</v>
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4">
         <v>9</v>
@@ -1031,10 +1031,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
@@ -1071,13 +1071,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1091,13 +1091,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
@@ -1131,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" s="4">
         <v>5</v>
@@ -1194,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F17" s="4">
         <v>20</v>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F18" s="4">
         <v>18</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F20" s="4">
         <v>6</v>
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F21" s="4">
         <v>16</v>
@@ -1331,13 +1331,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F25" s="4">
         <v>12</v>
@@ -1374,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F26" s="4">
         <v>18</v>
@@ -1391,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E27" s="4">
         <v>13</v>
@@ -1414,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F28" s="4">
         <v>17</v>
@@ -1457,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4">
         <v>17</v>
@@ -1574,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F36" s="4">
         <v>8</v>
@@ -1597,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F38" s="4">
         <v>10</v>
@@ -1674,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F41" s="4">
         <v>9</v>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F43" s="4">
         <v>19</v>
@@ -1774,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F46" s="4">
         <v>20</v>
@@ -1794,7 +1794,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F47" s="4">
         <v>20</v>
@@ -1814,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F48" s="4">
         <v>20</v>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F49" s="4">
         <v>17</v>
@@ -1854,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F50" s="4">
         <v>20</v>
@@ -1874,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F51" s="4">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F52" s="4">
         <v>17</v>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F53" s="4">
         <v>9</v>
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F54" s="4">
         <v>11</v>
@@ -1954,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4">
         <v>15</v>
@@ -1977,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F57" s="4">
         <v>19</v>
@@ -2017,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2031,13 +2031,13 @@
         <v>115</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E59" s="4">
         <v>15</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F61" s="4">
         <v>13</v>
@@ -2094,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F62" s="4">
         <v>18</v>
